--- a/python/example.xlsx
+++ b/python/example.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="テスト　太郎" sheetId="1" state="visible" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -102,6 +102,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -421,108 +424,108 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.90234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.89453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="3">
-      <c r="B1" s="4" t="n">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="B1" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="4" t="n">
+    <row r="2" ht="15" customHeight="1" s="4">
+      <c r="A2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>21:29 2020/05/22</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="4" t="n">
+    <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>テスト　太郎</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="4" t="n">
+    <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>項目1</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="4" t="n">
+    <row r="5" ht="15" customHeight="1" s="4">
+      <c r="A5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>0件</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="4" t="n">
+    <row r="6" ht="15" customHeight="1" s="4">
+      <c r="A6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>1件</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="4" t="n">
+    <row r="7" ht="15" customHeight="1" s="4">
+      <c r="A7" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>25件</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="4" t="n">
+    <row r="8" ht="15" customHeight="1" s="4">
+      <c r="A8" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>項目2</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="4" t="n">
+    <row r="9" ht="15" customHeight="1" s="4">
+      <c r="A9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>12件</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="4" t="n">
+    <row r="10" ht="15" customHeight="1" s="4">
+      <c r="A10" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>55件</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="4" t="n">
+    <row r="11" ht="15" customHeight="1" s="4">
+      <c r="A11" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>45件</t>
         </is>
@@ -543,77 +546,77 @@
   </sheetPr>
   <dimension ref="E1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="E1" t="inlineStr">
+    <row r="1" ht="13.8" customHeight="1" s="4">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>21:29 2020/05/22</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="E2" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="4">
+      <c r="E2" s="7" t="inlineStr">
         <is>
           <t>テスト　太郎</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="E3" t="inlineStr">
+    <row r="3" ht="13.8" customHeight="1" s="4">
+      <c r="E3" s="7" t="inlineStr">
         <is>
           <t>項目1</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="inlineStr">
+    <row r="4" ht="13.8" customHeight="1" s="4">
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>0件</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="E5" t="inlineStr">
+    <row r="5" ht="13.8" customHeight="1" s="4">
+      <c r="E5" s="7" t="inlineStr">
         <is>
           <t>1件</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="E6" t="inlineStr">
+    <row r="6" ht="13.8" customHeight="1" s="4">
+      <c r="E6" s="7" t="inlineStr">
         <is>
           <t>25件</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="E7" t="inlineStr">
+    <row r="7" ht="13.8" customHeight="1" s="4">
+      <c r="E7" s="7" t="inlineStr">
         <is>
           <t>項目2</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" t="inlineStr">
+    <row r="8" ht="13.8" customHeight="1" s="4">
+      <c r="E8" s="7" t="inlineStr">
         <is>
           <t>12件</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" t="inlineStr">
+    <row r="9" ht="13.8" customHeight="1" s="4">
+      <c r="E9" s="7" t="inlineStr">
         <is>
           <t>55件</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="E10" t="inlineStr">
+    <row r="10" ht="13.8" customHeight="1" s="4">
+      <c r="E10" s="7" t="inlineStr">
         <is>
           <t>45件</t>
         </is>
@@ -642,11 +645,11 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
